--- a/hahow_crawler/courses.xlsx
+++ b/hahow_crawler/courses.xlsx
@@ -484,7 +484,7 @@
         <v>4280</v>
       </c>
       <c r="D3" t="n">
-        <v>8090</v>
+        <v>8093</v>
       </c>
     </row>
     <row r="4">
@@ -516,7 +516,7 @@
         <v>4980</v>
       </c>
       <c r="D5" t="n">
-        <v>6035</v>
+        <v>6036</v>
       </c>
     </row>
     <row r="6">
@@ -532,7 +532,7 @@
         <v>2880</v>
       </c>
       <c r="D6" t="n">
-        <v>1895</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +548,7 @@
         <v>3200</v>
       </c>
       <c r="D7" t="n">
-        <v>12231</v>
+        <v>12233</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>2800</v>
       </c>
       <c r="D8" t="n">
-        <v>3531</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +580,7 @@
         <v>3380</v>
       </c>
       <c r="D9" t="n">
-        <v>11668</v>
+        <v>11673</v>
       </c>
     </row>
     <row r="10">
@@ -596,7 +596,7 @@
         <v>3500</v>
       </c>
       <c r="D10" t="n">
-        <v>9351</v>
+        <v>9352</v>
       </c>
     </row>
     <row r="11">
@@ -628,7 +628,7 @@
         <v>4200</v>
       </c>
       <c r="D12" t="n">
-        <v>2499</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         <v>3680</v>
       </c>
       <c r="D16" t="n">
-        <v>5661</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="17">
@@ -708,7 +708,7 @@
         <v>1800</v>
       </c>
       <c r="D17" t="n">
-        <v>2574</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="18">
@@ -740,7 +740,7 @@
         <v>2800</v>
       </c>
       <c r="D19" t="n">
-        <v>3855</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="20">
@@ -756,7 +756,7 @@
         <v>1900</v>
       </c>
       <c r="D20" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="21">
@@ -772,7 +772,7 @@
         <v>3980</v>
       </c>
       <c r="D21" t="n">
-        <v>8768</v>
+        <v>8769</v>
       </c>
     </row>
     <row r="22">
@@ -804,7 +804,7 @@
         <v>3280</v>
       </c>
       <c r="D23" t="n">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="24">
